--- a/Data/EC/NIT-9013301779.xlsx
+++ b/Data/EC/NIT-9013301779.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A55CDAE2-C7DE-4D4B-8ADC-7AACE0F415C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B002106-61CE-48BD-B70E-A1995CDD16F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{98C70387-82CC-4173-9F92-43CAB9346EC4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A91F6BC8-6734-4281-BA3B-4A1F9FA76117}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,51 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45517938</t>
+  </si>
+  <si>
+    <t>DERLY ZARATE LLERENA</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
     <t>71729664</t>
   </si>
   <si>
@@ -72,51 +117,6 @@
   </si>
   <si>
     <t>1912</t>
-  </si>
-  <si>
-    <t>45517938</t>
-  </si>
-  <si>
-    <t>DERLY ZARATE LLERENA</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -530,7 +530,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF9E859-7E8F-D79E-B020-76DCAB5BD70D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C8F1E64-A89A-5FB6-A939-DE1669265ECE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -881,7 +881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBEF90B-C4A2-4FD0-B490-1402EC319A4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794AAADF-58A4-45D9-B90D-5B8E3A66B1A1}">
   <dimension ref="B2:J48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1059,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>19875</v>
+        <v>26500</v>
       </c>
       <c r="G16" s="18">
         <v>828116</v>
@@ -1073,13 +1073,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>33125</v>
@@ -1102,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>33125</v>
@@ -1119,13 +1119,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>33125</v>
@@ -1165,10 +1165,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
@@ -1194,7 +1194,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>33125</v>
@@ -1217,7 +1217,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>33125</v>
@@ -1234,13 +1234,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>33125</v>
@@ -1257,13 +1257,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>33125</v>
@@ -1286,7 +1286,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>33125</v>
@@ -1303,13 +1303,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>33125</v>
@@ -1332,7 +1332,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>33125</v>
@@ -1349,16 +1349,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F29" s="18">
-        <v>33125</v>
+        <v>26500</v>
       </c>
       <c r="G29" s="18">
         <v>828116</v>
@@ -1372,13 +1372,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F30" s="18">
         <v>33125</v>
@@ -1395,13 +1395,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F31" s="18">
         <v>33125</v>
@@ -1418,13 +1418,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F32" s="18">
         <v>33125</v>
@@ -1441,13 +1441,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F33" s="18">
         <v>33125</v>
@@ -1464,13 +1464,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F34" s="18">
         <v>33125</v>
@@ -1487,13 +1487,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F35" s="18">
         <v>33125</v>
@@ -1510,13 +1510,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F36" s="18">
         <v>33125</v>
@@ -1533,13 +1533,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F37" s="18">
         <v>33125</v>
@@ -1556,13 +1556,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F38" s="18">
         <v>33125</v>
@@ -1579,13 +1579,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F39" s="18">
         <v>33125</v>
@@ -1602,13 +1602,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F40" s="18">
         <v>33125</v>
@@ -1625,16 +1625,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F41" s="18">
-        <v>26500</v>
+        <v>33125</v>
       </c>
       <c r="G41" s="18">
         <v>828116</v>
@@ -1648,16 +1648,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E42" s="22" t="s">
         <v>26</v>
       </c>
       <c r="F42" s="24">
-        <v>26500</v>
+        <v>19875</v>
       </c>
       <c r="G42" s="24">
         <v>828116</v>

--- a/Data/EC/NIT-9013301779.xlsx
+++ b/Data/EC/NIT-9013301779.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B002106-61CE-48BD-B70E-A1995CDD16F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEEB5079-D050-4BF7-BF8A-4E1D9326684F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A91F6BC8-6734-4281-BA3B-4A1F9FA76117}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E6037470-620E-45BE-B3C8-65706DBBA4BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,58 +65,58 @@
     <t>CC</t>
   </si>
   <si>
+    <t>71729664</t>
+  </si>
+  <si>
+    <t>GABRIEL JAIME PAREJA</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
     <t>45517938</t>
   </si>
   <si>
     <t>DERLY ZARATE LLERENA</t>
   </si>
   <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>71729664</t>
-  </si>
-  <si>
-    <t>GABRIEL JAIME PAREJA</t>
-  </si>
-  <si>
-    <t>1912</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -215,7 +215,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -228,9 +230,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -430,23 +430,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,10 +474,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -530,7 +530,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C8F1E64-A89A-5FB6-A939-DE1669265ECE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2055FDCB-B775-900A-1A2D-F0EF757A6BE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -881,7 +881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794AAADF-58A4-45D9-B90D-5B8E3A66B1A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2E8732-2BEB-4766-B65C-5E4424F4B5E4}">
   <dimension ref="B2:J48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1059,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>26500</v>
+        <v>19875</v>
       </c>
       <c r="G16" s="18">
         <v>828116</v>
@@ -1073,13 +1073,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>33125</v>
@@ -1102,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>33125</v>
@@ -1119,13 +1119,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>33125</v>
@@ -1165,10 +1165,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
@@ -1194,7 +1194,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>33125</v>
@@ -1211,13 +1211,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
         <v>33125</v>
@@ -1240,7 +1240,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>33125</v>
@@ -1257,13 +1257,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
         <v>33125</v>
@@ -1286,7 +1286,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>33125</v>
@@ -1303,13 +1303,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
         <v>33125</v>
@@ -1332,7 +1332,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>33125</v>
@@ -1349,16 +1349,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
-        <v>26500</v>
+        <v>33125</v>
       </c>
       <c r="G29" s="18">
         <v>828116</v>
@@ -1372,13 +1372,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
         <v>33125</v>
@@ -1395,13 +1395,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F31" s="18">
         <v>33125</v>
@@ -1418,13 +1418,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
         <v>33125</v>
@@ -1441,13 +1441,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F33" s="18">
         <v>33125</v>
@@ -1464,13 +1464,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
         <v>33125</v>
@@ -1487,13 +1487,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F35" s="18">
         <v>33125</v>
@@ -1510,13 +1510,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
         <v>33125</v>
@@ -1533,13 +1533,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F37" s="18">
         <v>33125</v>
@@ -1556,13 +1556,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F38" s="18">
         <v>33125</v>
@@ -1579,13 +1579,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F39" s="18">
         <v>33125</v>
@@ -1602,13 +1602,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F40" s="18">
         <v>33125</v>
@@ -1625,16 +1625,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F41" s="18">
-        <v>33125</v>
+        <v>26500</v>
       </c>
       <c r="G41" s="18">
         <v>828116</v>
@@ -1648,16 +1648,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E42" s="22" t="s">
         <v>26</v>
       </c>
       <c r="F42" s="24">
-        <v>19875</v>
+        <v>26500</v>
       </c>
       <c r="G42" s="24">
         <v>828116</v>
